--- a/REGISTRO_CISTERNAS_JCM (1).xlsx
+++ b/REGISTRO_CISTERNAS_JCM (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9615" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9615" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="20-Ago-22" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="142">
   <si>
     <t xml:space="preserve">SERVICIO </t>
   </si>
@@ -447,6 +447,24 @@
   </si>
   <si>
     <t>BD06798</t>
+  </si>
+  <si>
+    <t>4802-NTD</t>
+  </si>
+  <si>
+    <t>BJ07715</t>
+  </si>
+  <si>
+    <t>001-113924</t>
+  </si>
+  <si>
+    <t>001-113934</t>
+  </si>
+  <si>
+    <t>001-113944</t>
+  </si>
+  <si>
+    <t>001-113964</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1094,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>555812</xdr:colOff>
+      <xdr:colOff>264459</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
@@ -5832,10 +5850,10 @@
   </sheetPr>
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G30" sqref="G30"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7246,19 +7264,19 @@
   </sheetPr>
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -7407,7 +7425,10 @@
       <c r="Q4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="27"/>
+      <c r="R4" s="27">
+        <f>COUNTA(B7:B26)</f>
+        <v>1</v>
+      </c>
       <c r="S4" s="37"/>
       <c r="T4" s="37"/>
       <c r="U4" s="37"/>
@@ -7509,27 +7530,58 @@
       <c r="AA6" s="37"/>
       <c r="AB6" s="37"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="B7" s="4">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="5">
+        <v>16420</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="G7" s="6">
+        <v>8850</v>
+      </c>
+      <c r="H7" s="6">
+        <v>44430</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="O7" s="6"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="5"/>
+      <c r="Q7" s="8">
+        <v>4</v>
+      </c>
+      <c r="R7" s="5">
+        <f>H7-E7</f>
+        <v>28010</v>
+      </c>
       <c r="S7" s="9"/>
       <c r="T7" s="10"/>
       <c r="U7" s="11"/>
